--- a/IFFT计算.xlsx
+++ b/IFFT计算.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C27C94-4C29-4465-9B76-2AA29D2B6B88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -148,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +228,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -302,6 +303,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -337,6 +355,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,11 +547,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -554,10 +589,10 @@
         <v>29</v>
       </c>
       <c r="I1" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3">
-        <v>0</v>
+        <v>-3.3137120000000002</v>
       </c>
       <c r="K1">
         <v>1</v>
@@ -567,11 +602,11 @@
       </c>
       <c r="M1" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("I"&amp;ROW()) + INDIRECT("K"&amp;ROW()) * INDIRECT("I"&amp;(ROW()+1)) - INDIRECT("L"&amp;ROW()) * INDIRECT("J"&amp;(ROW()+1))</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("J"&amp;ROW()) + INDIRECT("K"&amp;ROW()) * INDIRECT("J"&amp;(ROW()+1)) + INDIRECT("L"&amp;ROW()) * INDIRECT("I"&amp;(ROW()+1))</f>
-        <v>0</v>
+        <v>-6.6274240000000004</v>
       </c>
       <c r="O1">
         <v>1</v>
@@ -581,11 +616,11 @@
       </c>
       <c r="Q1" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("M"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("M"&amp;(ROW()+2)) - INDIRECT("P"&amp;ROW()) * INDIRECT("N"&amp;(ROW()+2))</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="R1" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;(ROW()+2)) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;(ROW()+2))</f>
-        <v>0</v>
+        <v>-13.254848000000001</v>
       </c>
       <c r="S1">
         <v>1</v>
@@ -595,7 +630,7 @@
       </c>
       <c r="U1" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("Q"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("Q"&amp;(ROW()+4)) - INDIRECT("P"&amp;ROW()) * INDIRECT("R"&amp;(ROW()+4))</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="V1" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;ROW()) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;(ROW()+4)) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;(ROW()+4))</f>
@@ -625,10 +660,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J2" s="3">
-        <v>0</v>
+        <v>-3.3137120000000002</v>
       </c>
       <c r="K2">
         <v>-1</v>
@@ -638,7 +673,7 @@
       </c>
       <c r="M2" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("I"&amp;(ROW()-1)) + INDIRECT("K"&amp;ROW()) * INDIRECT("I"&amp;ROW()) - INDIRECT("L"&amp;ROW()) * INDIRECT("J"&amp;ROW())</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("J"&amp;(ROW()-1)) + INDIRECT("K"&amp;ROW()) * INDIRECT("J"&amp;ROW()) + INDIRECT("L"&amp;ROW()) * INDIRECT("I"&amp;ROW())</f>
@@ -652,11 +687,11 @@
       </c>
       <c r="Q2" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("M"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("M"&amp;(ROW()+2)) - INDIRECT("P"&amp;ROW()) * INDIRECT("N"&amp;(ROW()+2))</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;(ROW()+2)) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;(ROW()+2))</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0.70710700000000004</v>
@@ -666,11 +701,11 @@
       </c>
       <c r="U2" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("Q"&amp;ROW()) + INDIRECT("S"&amp;ROW()) * INDIRECT("Q"&amp;(ROW()+4)) - INDIRECT("T"&amp;ROW()) * INDIRECT("R"&amp;(ROW()+4))</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="V2" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;ROW()) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;(ROW()+4)) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;(ROW()+4))</f>
-        <v>-9.6568560000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
@@ -696,10 +731,10 @@
         <v>28</v>
       </c>
       <c r="I3" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J3" s="3">
-        <v>0</v>
+        <v>-3.3137120000000002</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -709,11 +744,11 @@
       </c>
       <c r="M3" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("I"&amp;ROW()) + INDIRECT("K"&amp;ROW()) * INDIRECT("I"&amp;(ROW()+1)) - INDIRECT("L"&amp;ROW()) * INDIRECT("J"&amp;(ROW()+1))</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N3" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("J"&amp;ROW()) + INDIRECT("K"&amp;ROW()) * INDIRECT("J"&amp;(ROW()+1)) + INDIRECT("L"&amp;ROW()) * INDIRECT("I"&amp;(ROW()+1))</f>
-        <v>0</v>
+        <v>-6.6274240000000004</v>
       </c>
       <c r="O3">
         <v>-1</v>
@@ -723,7 +758,7 @@
       </c>
       <c r="Q3" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("M"&amp;(ROW()-2)) + INDIRECT("O"&amp;ROW()) * INDIRECT("M"&amp;ROW()) - INDIRECT("P"&amp;ROW()) * INDIRECT("N"&amp;ROW())</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;(ROW()-2)) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;ROW()) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;ROW())</f>
@@ -737,11 +772,11 @@
       </c>
       <c r="U3" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("Q"&amp;ROW()) + INDIRECT("S"&amp;ROW()) * INDIRECT("Q"&amp;(ROW()+4)) - INDIRECT("T"&amp;ROW()) * INDIRECT("R"&amp;(ROW()+4))</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="V3" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;ROW()) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;(ROW()+4)) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;(ROW()+4))</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
@@ -767,10 +802,10 @@
         <v>28</v>
       </c>
       <c r="I4" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="3">
-        <v>0</v>
+        <v>-3.3137120000000002</v>
       </c>
       <c r="K4">
         <v>-1</v>
@@ -780,7 +815,7 @@
       </c>
       <c r="M4" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("I"&amp;(ROW()-1)) + INDIRECT("K"&amp;ROW()) * INDIRECT("I"&amp;ROW()) - INDIRECT("L"&amp;ROW()) * INDIRECT("J"&amp;ROW())</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("J"&amp;(ROW()-1)) + INDIRECT("K"&amp;ROW()) * INDIRECT("J"&amp;ROW()) + INDIRECT("L"&amp;ROW()) * INDIRECT("I"&amp;ROW())</f>
@@ -794,11 +829,11 @@
       </c>
       <c r="Q4" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("M"&amp;(ROW()-2)) + INDIRECT("O"&amp;ROW()) * INDIRECT("M"&amp;ROW()) - INDIRECT("P"&amp;ROW()) * INDIRECT("N"&amp;ROW())</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;(ROW()-2)) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;ROW()) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;ROW())</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>-0.70710700000000004</v>
@@ -808,11 +843,11 @@
       </c>
       <c r="U4" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("Q"&amp;ROW()) + INDIRECT("S"&amp;ROW()) * INDIRECT("Q"&amp;(ROW()+4)) - INDIRECT("T"&amp;ROW()) * INDIRECT("R"&amp;(ROW()+4))</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="V4" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;ROW()) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;(ROW()+4)) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;(ROW()+4))</f>
-        <v>-1.6568560000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
@@ -838,10 +873,10 @@
         <v>28</v>
       </c>
       <c r="I5" s="3">
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>3.3137120000000002</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -851,11 +886,11 @@
       </c>
       <c r="M5" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("I"&amp;ROW()) + INDIRECT("K"&amp;ROW()) * INDIRECT("I"&amp;(ROW()+1)) - INDIRECT("L"&amp;ROW()) * INDIRECT("J"&amp;(ROW()+1))</f>
-        <v>8</v>
+        <v>-16</v>
       </c>
       <c r="N5" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("J"&amp;ROW()) + INDIRECT("K"&amp;ROW()) * INDIRECT("J"&amp;(ROW()+1)) + INDIRECT("L"&amp;ROW()) * INDIRECT("I"&amp;(ROW()+1))</f>
-        <v>0</v>
+        <v>6.6274240000000004</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -865,11 +900,11 @@
       </c>
       <c r="Q5" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("M"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("M"&amp;(ROW()+2)) - INDIRECT("P"&amp;ROW()) * INDIRECT("N"&amp;(ROW()+2))</f>
-        <v>20</v>
+        <v>-32</v>
       </c>
       <c r="R5" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;(ROW()+2)) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;(ROW()+2))</f>
-        <v>0</v>
+        <v>13.254848000000001</v>
       </c>
       <c r="S5">
         <v>-1</v>
@@ -879,11 +914,11 @@
       </c>
       <c r="U5" s="2">
         <f ca="1">INDIRECT("Q"&amp;(ROW()-4))+INDIRECT("S"&amp;ROW())*INDIRECT("Q"&amp;ROW())-INDIRECT("T"&amp;ROW())*INDIRECT("R"&amp;ROW())</f>
-        <v>-4</v>
+        <v>64</v>
       </c>
       <c r="V5" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;(ROW()-4)) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;ROW()) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;ROW())</f>
-        <v>0</v>
+        <v>-26.509696000000002</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
@@ -909,10 +944,10 @@
         <v>28</v>
       </c>
       <c r="I6" s="3">
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="J6" s="3">
-        <v>0</v>
+        <v>3.3137120000000002</v>
       </c>
       <c r="K6">
         <v>-1</v>
@@ -922,7 +957,7 @@
       </c>
       <c r="M6" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("I"&amp;(ROW()-1)) + INDIRECT("K"&amp;ROW()) * INDIRECT("I"&amp;ROW()) - INDIRECT("L"&amp;ROW()) * INDIRECT("J"&amp;ROW())</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("J"&amp;(ROW()-1)) + INDIRECT("K"&amp;ROW()) * INDIRECT("J"&amp;ROW()) + INDIRECT("L"&amp;ROW()) * INDIRECT("I"&amp;ROW())</f>
@@ -936,11 +971,11 @@
       </c>
       <c r="Q6" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("M"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("M"&amp;(ROW()+2)) - INDIRECT("P"&amp;ROW()) * INDIRECT("N"&amp;(ROW()+2))</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;(ROW()+2)) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;(ROW()+2))</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>-0.70710700000000004</v>
@@ -950,11 +985,11 @@
       </c>
       <c r="U6" s="2">
         <f ca="1">INDIRECT("Q"&amp;(ROW()-4))+INDIRECT("S"&amp;ROW())*INDIRECT("Q"&amp;ROW())-INDIRECT("T"&amp;ROW())*INDIRECT("R"&amp;ROW())</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="V6" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;(ROW()-4)) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;ROW()) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;ROW())</f>
-        <v>1.6568560000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
@@ -980,10 +1015,10 @@
         <v>28</v>
       </c>
       <c r="I7" s="3">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="J7" s="3">
-        <v>0</v>
+        <v>3.3137120000000002</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -993,11 +1028,11 @@
       </c>
       <c r="M7" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("I"&amp;ROW()) + INDIRECT("K"&amp;ROW()) * INDIRECT("I"&amp;(ROW()+1)) - INDIRECT("L"&amp;ROW()) * INDIRECT("J"&amp;(ROW()+1))</f>
-        <v>12</v>
+        <v>-16</v>
       </c>
       <c r="N7" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("J"&amp;ROW()) + INDIRECT("K"&amp;ROW()) * INDIRECT("J"&amp;(ROW()+1)) + INDIRECT("L"&amp;ROW()) * INDIRECT("I"&amp;(ROW()+1))</f>
-        <v>0</v>
+        <v>6.6274240000000004</v>
       </c>
       <c r="O7">
         <v>-1</v>
@@ -1007,7 +1042,7 @@
       </c>
       <c r="Q7" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("M"&amp;(ROW()-2)) + INDIRECT("O"&amp;ROW()) * INDIRECT("M"&amp;ROW()) - INDIRECT("P"&amp;ROW()) * INDIRECT("N"&amp;ROW())</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;(ROW()-2)) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;ROW()) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;ROW())</f>
@@ -1021,11 +1056,11 @@
       </c>
       <c r="U7" s="2">
         <f ca="1">INDIRECT("Q"&amp;(ROW()-4))+INDIRECT("S"&amp;ROW())*INDIRECT("Q"&amp;ROW())-INDIRECT("T"&amp;ROW())*INDIRECT("R"&amp;ROW())</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="V7" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;(ROW()-4)) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;ROW()) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;ROW())</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
@@ -1051,10 +1086,10 @@
         <v>28</v>
       </c>
       <c r="I8" s="3">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>3.3137120000000002</v>
       </c>
       <c r="K8">
         <v>-1</v>
@@ -1064,7 +1099,7 @@
       </c>
       <c r="M8" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("I"&amp;(ROW()-1)) + INDIRECT("K"&amp;ROW()) * INDIRECT("I"&amp;ROW()) - INDIRECT("L"&amp;ROW()) * INDIRECT("J"&amp;ROW())</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("J"&amp;(ROW()-1)) + INDIRECT("K"&amp;ROW()) * INDIRECT("J"&amp;ROW()) + INDIRECT("L"&amp;ROW()) * INDIRECT("I"&amp;ROW())</f>
@@ -1078,11 +1113,11 @@
       </c>
       <c r="Q8" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("M"&amp;(ROW()-2)) + INDIRECT("O"&amp;ROW()) * INDIRECT("M"&amp;ROW()) - INDIRECT("P"&amp;ROW()) * INDIRECT("N"&amp;ROW())</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;(ROW()-2)) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;ROW()) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;ROW())</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0.70710700000000004</v>
@@ -1092,11 +1127,51 @@
       </c>
       <c r="U8" s="2">
         <f ca="1">INDIRECT("Q"&amp;(ROW()-4))+INDIRECT("S"&amp;ROW())*INDIRECT("Q"&amp;ROW())-INDIRECT("T"&amp;ROW())*INDIRECT("R"&amp;ROW())</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="V8" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;(ROW()-4)) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;ROW()) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;ROW())</f>
-        <v>9.6568560000000012</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="I11" s="3">
+        <v>-8</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="I12" s="3">
+        <v>-8</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3.3137120000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="I13" s="3">
+        <v>-8</v>
+      </c>
+      <c r="J13" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="I14" s="3">
+        <v>-8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>19.313712000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="I15" s="3">
+        <v>56</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
@@ -1114,8 +1189,30 @@
         <f>SIN(2 * 3.1415926 * A16 / B16)</f>
         <v>0.70710680960682637</v>
       </c>
-    </row>
-    <row r="32" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="I16" s="3">
+        <v>-8</v>
+      </c>
+      <c r="J16" s="3">
+        <v>-19.313712000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I17" s="3">
+        <v>-8</v>
+      </c>
+      <c r="J17" s="3">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I18" s="3">
+        <v>-8</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-3.3137120000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="9:11" x14ac:dyDescent="0.15">
       <c r="K32" t="s">
         <v>30</v>
       </c>

--- a/IFFT计算.xlsx
+++ b/IFFT计算.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C27C94-4C29-4465-9B76-2AA29D2B6B88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E17FE66-7A98-44B9-9BDF-95B63C851E6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>(-1, 0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,46 @@
   </si>
   <si>
     <t>4 0 6 2 5 1 7 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1 0 -1 1 -1 1 -1 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-k_dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 0 1 -1 1 -1 1 -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_cor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_mag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_module_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_module_z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +232,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -205,11 +251,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -548,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -560,7 +614,9 @@
     <col min="9" max="10" width="9" style="3"/>
     <col min="13" max="13" width="9" style="1"/>
     <col min="14" max="14" width="15" style="1" customWidth="1"/>
-    <col min="17" max="18" width="9" style="2"/>
+    <col min="16" max="16" width="15.375" customWidth="1"/>
+    <col min="17" max="17" width="9" style="2"/>
+    <col min="18" max="18" width="16.375" style="2" customWidth="1"/>
     <col min="19" max="19" width="13.125" customWidth="1"/>
     <col min="20" max="20" width="14.875" customWidth="1"/>
     <col min="21" max="22" width="9" style="2"/>
@@ -589,10 +645,12 @@
         <v>29</v>
       </c>
       <c r="I1" s="3">
-        <v>8</v>
+        <f ca="1">S11 * N11</f>
+        <v>0</v>
       </c>
       <c r="J1" s="3">
-        <v>-3.3137120000000002</v>
+        <f ca="1">R11 * M11 * -1</f>
+        <v>0</v>
       </c>
       <c r="K1">
         <v>1</v>
@@ -602,11 +660,11 @@
       </c>
       <c r="M1" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("I"&amp;ROW()) + INDIRECT("K"&amp;ROW()) * INDIRECT("I"&amp;(ROW()+1)) - INDIRECT("L"&amp;ROW()) * INDIRECT("J"&amp;(ROW()+1))</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N1" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("J"&amp;ROW()) + INDIRECT("K"&amp;ROW()) * INDIRECT("J"&amp;(ROW()+1)) + INDIRECT("L"&amp;ROW()) * INDIRECT("I"&amp;(ROW()+1))</f>
-        <v>-6.6274240000000004</v>
+        <v>0</v>
       </c>
       <c r="O1">
         <v>1</v>
@@ -616,11 +674,11 @@
       </c>
       <c r="Q1" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("M"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("M"&amp;(ROW()+2)) - INDIRECT("P"&amp;ROW()) * INDIRECT("N"&amp;(ROW()+2))</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="R1" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;(ROW()+2)) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;(ROW()+2))</f>
-        <v>-13.254848000000001</v>
+        <v>-1.7888543819998319</v>
       </c>
       <c r="S1">
         <v>1</v>
@@ -634,7 +692,7 @@
       </c>
       <c r="V1" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;ROW()) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;(ROW()+4)) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;(ROW()+4))</f>
-        <v>0</v>
+        <v>2.2962168680728348</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
@@ -660,10 +718,12 @@
         <v>5</v>
       </c>
       <c r="I2" s="3">
-        <v>8</v>
+        <f t="shared" ref="I2:I8" ca="1" si="0">S12 * N12</f>
+        <v>0</v>
       </c>
       <c r="J2" s="3">
-        <v>-3.3137120000000002</v>
+        <f t="shared" ref="J2:J8" ca="1" si="1">R12 * M12 * -1</f>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>-1</v>
@@ -687,7 +747,7 @@
       </c>
       <c r="Q2" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("M"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("M"&amp;(ROW()+2)) - INDIRECT("P"&amp;ROW()) * INDIRECT("N"&amp;(ROW()+2))</f>
-        <v>0</v>
+        <v>-3.5777087639996634</v>
       </c>
       <c r="R2" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;(ROW()+2)) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;(ROW()+2))</f>
@@ -701,11 +761,11 @@
       </c>
       <c r="U2" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("Q"&amp;ROW()) + INDIRECT("S"&amp;ROW()) * INDIRECT("Q"&amp;(ROW()+4)) - INDIRECT("T"&amp;ROW()) * INDIRECT("R"&amp;(ROW()+4))</f>
-        <v>0</v>
+        <v>1.1883939417008675</v>
       </c>
       <c r="V2" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;ROW()) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;(ROW()+4)) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;(ROW()+4))</f>
-        <v>0</v>
+        <v>2.2025879235748675</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
@@ -731,10 +791,12 @@
         <v>28</v>
       </c>
       <c r="I3" s="3">
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
-        <v>-3.3137120000000002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89442719099991586</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -744,11 +806,11 @@
       </c>
       <c r="M3" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("I"&amp;ROW()) + INDIRECT("K"&amp;ROW()) * INDIRECT("I"&amp;(ROW()+1)) - INDIRECT("L"&amp;ROW()) * INDIRECT("J"&amp;(ROW()+1))</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("J"&amp;ROW()) + INDIRECT("K"&amp;ROW()) * INDIRECT("J"&amp;(ROW()+1)) + INDIRECT("L"&amp;ROW()) * INDIRECT("I"&amp;(ROW()+1))</f>
-        <v>-6.6274240000000004</v>
+        <v>-1.7888543819998319</v>
       </c>
       <c r="O3">
         <v>-1</v>
@@ -762,7 +824,7 @@
       </c>
       <c r="R3" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;(ROW()-2)) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;ROW()) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;ROW())</f>
-        <v>0</v>
+        <v>1.7888543819998319</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -772,11 +834,11 @@
       </c>
       <c r="U3" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("Q"&amp;ROW()) + INDIRECT("S"&amp;ROW()) * INDIRECT("Q"&amp;(ROW()+4)) - INDIRECT("T"&amp;ROW()) * INDIRECT("R"&amp;(ROW()+4))</f>
-        <v>0</v>
+        <v>2.8597149997093365</v>
       </c>
       <c r="V3" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;ROW()) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;(ROW()+4)) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;(ROW()+4))</f>
-        <v>0</v>
+        <v>1.7888543819998319</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
@@ -802,10 +864,12 @@
         <v>28</v>
       </c>
       <c r="I4" s="3">
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>-3.3137120000000002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.6832815729997477</v>
       </c>
       <c r="K4">
         <v>-1</v>
@@ -819,7 +883,7 @@
       </c>
       <c r="N4" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("J"&amp;(ROW()-1)) + INDIRECT("K"&amp;ROW()) * INDIRECT("J"&amp;ROW()) + INDIRECT("L"&amp;ROW()) * INDIRECT("I"&amp;ROW())</f>
-        <v>0</v>
+        <v>3.5777087639996634</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -829,7 +893,7 @@
       </c>
       <c r="Q4" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("M"&amp;(ROW()-2)) + INDIRECT("O"&amp;ROW()) * INDIRECT("M"&amp;ROW()) - INDIRECT("P"&amp;ROW()) * INDIRECT("N"&amp;ROW())</f>
-        <v>0</v>
+        <v>3.5777087639996634</v>
       </c>
       <c r="R4" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;(ROW()-2)) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;ROW()) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;ROW())</f>
@@ -843,11 +907,11 @@
       </c>
       <c r="U4" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("Q"&amp;ROW()) + INDIRECT("S"&amp;ROW()) * INDIRECT("Q"&amp;(ROW()+4)) - INDIRECT("T"&amp;ROW()) * INDIRECT("R"&amp;(ROW()+4))</f>
-        <v>0</v>
+        <v>8.3438114697001957</v>
       </c>
       <c r="V4" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;ROW()) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;(ROW()+4)) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;(ROW()+4))</f>
-        <v>0</v>
+        <v>-2.2025879235748675</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
@@ -873,10 +937,12 @@
         <v>28</v>
       </c>
       <c r="I5" s="3">
-        <v>-8</v>
+        <f ca="1">S15 * N15 * -1</f>
+        <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>3.3137120000000002</v>
+        <f ca="1">R15 * M15</f>
+        <v>-0.6</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -886,11 +952,11 @@
       </c>
       <c r="M5" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("I"&amp;ROW()) + INDIRECT("K"&amp;ROW()) * INDIRECT("I"&amp;(ROW()+1)) - INDIRECT("L"&amp;ROW()) * INDIRECT("J"&amp;(ROW()+1))</f>
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("J"&amp;ROW()) + INDIRECT("K"&amp;ROW()) * INDIRECT("J"&amp;(ROW()+1)) + INDIRECT("L"&amp;ROW()) * INDIRECT("I"&amp;(ROW()+1))</f>
-        <v>6.6274240000000004</v>
+        <v>0.61267812518166498</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -900,11 +966,11 @@
       </c>
       <c r="Q5" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("M"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("M"&amp;(ROW()+2)) - INDIRECT("P"&amp;ROW()) * INDIRECT("N"&amp;(ROW()+2))</f>
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;(ROW()+2)) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;(ROW()+2))</f>
-        <v>13.254848000000001</v>
+        <v>4.0850712500726667</v>
       </c>
       <c r="S5">
         <v>-1</v>
@@ -914,11 +980,11 @@
       </c>
       <c r="U5" s="2">
         <f ca="1">INDIRECT("Q"&amp;(ROW()-4))+INDIRECT("S"&amp;ROW())*INDIRECT("Q"&amp;ROW())-INDIRECT("T"&amp;ROW())*INDIRECT("R"&amp;ROW())</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="V5" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;(ROW()-4)) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;ROW()) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;ROW())</f>
-        <v>-26.509696000000002</v>
+        <v>-5.8739256320724991</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
@@ -944,10 +1010,12 @@
         <v>28</v>
       </c>
       <c r="I6" s="3">
-        <v>-8</v>
+        <f ca="1">S16 * N16 * -1</f>
+        <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>3.3137120000000002</v>
+        <f ca="1">R16 * M16</f>
+        <v>1.212678125181665</v>
       </c>
       <c r="K6">
         <v>-1</v>
@@ -961,7 +1029,7 @@
       </c>
       <c r="N6" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("J"&amp;(ROW()-1)) + INDIRECT("K"&amp;ROW()) * INDIRECT("J"&amp;ROW()) + INDIRECT("L"&amp;ROW()) * INDIRECT("I"&amp;ROW())</f>
-        <v>0</v>
+        <v>-1.812678125181665</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -971,11 +1039,11 @@
       </c>
       <c r="Q6" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("M"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("M"&amp;(ROW()+2)) - INDIRECT("P"&amp;ROW()) * INDIRECT("N"&amp;(ROW()+2))</f>
-        <v>0</v>
+        <v>4.9276068751089994</v>
       </c>
       <c r="R6" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;(ROW()+2)) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;(ROW()+2))</f>
-        <v>0</v>
+        <v>-1.812678125181665</v>
       </c>
       <c r="S6">
         <v>-0.70710700000000004</v>
@@ -985,11 +1053,11 @@
       </c>
       <c r="U6" s="2">
         <f ca="1">INDIRECT("Q"&amp;(ROW()-4))+INDIRECT("S"&amp;ROW())*INDIRECT("Q"&amp;ROW())-INDIRECT("T"&amp;ROW())*INDIRECT("R"&amp;ROW())</f>
-        <v>0</v>
+        <v>-8.3438114697001957</v>
       </c>
       <c r="V6" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;(ROW()-4)) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;ROW()) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;ROW())</f>
-        <v>0</v>
+        <v>-2.2025879235748675</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
@@ -1015,10 +1083,12 @@
         <v>28</v>
       </c>
       <c r="I7" s="3">
-        <v>-8</v>
+        <f ca="1">S17 * N17 * -1</f>
+        <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>3.3137120000000002</v>
+        <f ca="1">R17 * M17</f>
+        <v>-0.72760687510899891</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1028,11 +1098,11 @@
       </c>
       <c r="M7" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("I"&amp;ROW()) + INDIRECT("K"&amp;ROW()) * INDIRECT("I"&amp;(ROW()+1)) - INDIRECT("L"&amp;ROW()) * INDIRECT("J"&amp;(ROW()+1))</f>
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("J"&amp;ROW()) + INDIRECT("K"&amp;ROW()) * INDIRECT("J"&amp;(ROW()+1)) + INDIRECT("L"&amp;ROW()) * INDIRECT("I"&amp;(ROW()+1))</f>
-        <v>6.6274240000000004</v>
+        <v>3.4723931248910014</v>
       </c>
       <c r="O7">
         <v>-1</v>
@@ -1046,7 +1116,7 @@
       </c>
       <c r="R7" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;(ROW()-2)) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;ROW()) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;ROW())</f>
-        <v>0</v>
+        <v>-2.8597149997093365</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1056,11 +1126,11 @@
       </c>
       <c r="U7" s="2">
         <f ca="1">INDIRECT("Q"&amp;(ROW()-4))+INDIRECT("S"&amp;ROW())*INDIRECT("Q"&amp;ROW())-INDIRECT("T"&amp;ROW())*INDIRECT("R"&amp;ROW())</f>
-        <v>0</v>
+        <v>-2.8597149997093365</v>
       </c>
       <c r="V7" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;(ROW()-4)) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;ROW()) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;ROW())</f>
-        <v>0</v>
+        <v>1.7888543819998319</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
@@ -1086,10 +1156,12 @@
         <v>28</v>
       </c>
       <c r="I8" s="3">
-        <v>-8</v>
+        <f ca="1">S18 * N18 * -1</f>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>3.3137120000000002</v>
+        <f ca="1">R18 * M18</f>
+        <v>4.2</v>
       </c>
       <c r="K8">
         <v>-1</v>
@@ -1103,7 +1175,7 @@
       </c>
       <c r="N8" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("J"&amp;(ROW()-1)) + INDIRECT("K"&amp;ROW()) * INDIRECT("J"&amp;ROW()) + INDIRECT("L"&amp;ROW()) * INDIRECT("I"&amp;ROW())</f>
-        <v>0</v>
+        <v>-4.9276068751089994</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1113,11 +1185,11 @@
       </c>
       <c r="Q8" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("M"&amp;(ROW()-2)) + INDIRECT("O"&amp;ROW()) * INDIRECT("M"&amp;ROW()) - INDIRECT("P"&amp;ROW()) * INDIRECT("N"&amp;ROW())</f>
-        <v>0</v>
+        <v>-4.9276068751089994</v>
       </c>
       <c r="R8" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;(ROW()-2)) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;ROW()) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;ROW())</f>
-        <v>0</v>
+        <v>-1.812678125181665</v>
       </c>
       <c r="S8">
         <v>0.70710700000000004</v>
@@ -1127,104 +1199,352 @@
       </c>
       <c r="U8" s="2">
         <f ca="1">INDIRECT("Q"&amp;(ROW()-4))+INDIRECT("S"&amp;ROW())*INDIRECT("Q"&amp;ROW())-INDIRECT("T"&amp;ROW())*INDIRECT("R"&amp;ROW())</f>
-        <v>0</v>
+        <v>-1.1883939417008675</v>
       </c>
       <c r="V8" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;(ROW()-4)) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;ROW()) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;ROW())</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="I11" s="3">
+        <v>2.2025879235748675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I11" s="6">
         <v>-8</v>
       </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="I12" s="3">
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <f ca="1">2*3.1415926*(INDIRECT("M"&amp;ROW()) - 4) * 2</f>
+        <v>-50.265481600000001</v>
+      </c>
+      <c r="P11" s="6">
+        <f ca="1">2*3.1415926*(INDIRECT("N"&amp;ROW()) - 4) * 2</f>
+        <v>-50.265481600000001</v>
+      </c>
+      <c r="Q11" s="6">
+        <f ca="1" xml:space="preserve"> SQRT(INDIRECT("O"&amp;ROW()) * INDIRECT("O"&amp;ROW()) + INDIRECT("P"&amp;ROW()) * INDIRECT("P"&amp;ROW()))</f>
+        <v>71.086125797935267</v>
+      </c>
+      <c r="R11" s="6">
+        <f ca="1">INDIRECT("O"&amp;ROW()) /INDIRECT("Q"&amp;ROW())</f>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="S11" s="6">
+        <f ca="1">INDIRECT("P"&amp;ROW()) /INDIRECT("Q"&amp;ROW())</f>
+        <v>-0.70710678118654746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I12" s="6">
         <v>-8</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="6">
         <v>3.3137120000000007</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="I13" s="3">
+      <c r="M12" s="7">
+        <v>4</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" ref="N12:O18" ca="1" si="2">2*3.1415926*(INDIRECT("M"&amp;ROW()) - 4) * 2</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" ref="P12:P18" ca="1" si="3">2*3.1415926*(INDIRECT("N"&amp;ROW()) - 4) * 2</f>
+        <v>-50.265481600000001</v>
+      </c>
+      <c r="Q12" s="6">
+        <f t="shared" ref="Q12:Q18" ca="1" si="4" xml:space="preserve"> SQRT(INDIRECT("O"&amp;ROW()) * INDIRECT("O"&amp;ROW()) + INDIRECT("P"&amp;ROW()) * INDIRECT("P"&amp;ROW()))</f>
+        <v>50.265481600000001</v>
+      </c>
+      <c r="R12" s="6">
+        <f t="shared" ref="R12:R18" ca="1" si="5">INDIRECT("O"&amp;ROW()) /INDIRECT("Q"&amp;ROW())</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <f t="shared" ref="S12:S18" ca="1" si="6">INDIRECT("P"&amp;ROW()) /INDIRECT("Q"&amp;ROW())</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I13" s="6">
         <v>-8</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="I14" s="3">
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>-25.132740800000001</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>-50.265481600000001</v>
+      </c>
+      <c r="Q13" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>56.198516889682452</v>
+      </c>
+      <c r="R13" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.44721359549995793</v>
+      </c>
+      <c r="S13" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.89442719099991586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I14" s="6">
         <v>-8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="6">
         <v>19.313712000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="I15" s="3">
+      <c r="M14" s="7">
+        <v>6</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>25.132740800000001</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>-50.265481600000001</v>
+      </c>
+      <c r="Q14" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>56.198516889682452</v>
+      </c>
+      <c r="R14" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.44721359549995793</v>
+      </c>
+      <c r="S14" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.89442719099991586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I15" s="6">
         <v>56</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>-37.699111200000004</v>
+      </c>
+      <c r="P15" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>-50.265481600000001</v>
+      </c>
+      <c r="Q15" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>62.831852000000005</v>
+      </c>
+      <c r="R15" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.6</v>
+      </c>
+      <c r="S15" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
         <v>3</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6">
         <v>8</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <f>COS(2*3.1415926 * A16 / B16)</f>
         <v>-0.70710675276626744</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <f>SIN(2 * 3.1415926 * A16 / B16)</f>
         <v>0.70710680960682637</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="6">
         <v>-8</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="6">
         <v>-19.313712000000002</v>
       </c>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.15">
-      <c r="I17" s="3">
+      <c r="M16" s="7">
+        <v>5</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>12.5663704</v>
+      </c>
+      <c r="P16" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>-50.265481600000001</v>
+      </c>
+      <c r="Q16" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>51.812472489835251</v>
+      </c>
+      <c r="R16" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.24253562503633297</v>
+      </c>
+      <c r="S16" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.97014250014533188</v>
+      </c>
+    </row>
+    <row r="17" spans="9:19" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I17" s="6">
         <v>-8</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="6">
         <v>-8</v>
       </c>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.15">
-      <c r="I18" s="3">
+      <c r="M17" s="7">
+        <v>3</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>-12.5663704</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>-50.265481600000001</v>
+      </c>
+      <c r="Q17" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>51.812472489835251</v>
+      </c>
+      <c r="R17" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.24253562503633297</v>
+      </c>
+      <c r="S17" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.97014250014533188</v>
+      </c>
+    </row>
+    <row r="18" spans="9:19" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I18" s="6">
         <v>-8</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="6">
         <v>-3.3137120000000007</v>
       </c>
-    </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="M18" s="7">
+        <v>7</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>37.699111200000004</v>
+      </c>
+      <c r="P18" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>-50.265481600000001</v>
+      </c>
+      <c r="Q18" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>62.831852000000005</v>
+      </c>
+      <c r="R18" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="S18" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="9:19" x14ac:dyDescent="0.15">
       <c r="K32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J33" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="K33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J34" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="K34" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/IFFT计算.xlsx
+++ b/IFFT计算.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E17FE66-7A98-44B9-9BDF-95B63C851E6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -189,7 +188,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -282,7 +281,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -357,23 +356,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -409,23 +391,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -601,11 +566,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:V8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -649,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="J1" s="3">
-        <f ca="1">R11 * M11 * -1</f>
+        <f ca="1">R11 * M11</f>
         <v>0</v>
       </c>
       <c r="K1">
@@ -678,7 +643,7 @@
       </c>
       <c r="R1" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;(ROW()+2)) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;(ROW()+2))</f>
-        <v>-1.7888543819998319</v>
+        <v>100.53096320000002</v>
       </c>
       <c r="S1">
         <v>1</v>
@@ -692,7 +657,7 @@
       </c>
       <c r="V1" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;ROW()) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;(ROW()+4)) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;(ROW()+4))</f>
-        <v>2.2962168680728348</v>
+        <v>-150.79644480000002</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
@@ -718,11 +683,11 @@
         <v>5</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" ref="I2:I8" ca="1" si="0">S12 * N12</f>
+        <f t="shared" ref="I2:I4" ca="1" si="0">S12 * N12</f>
         <v>0</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J8" ca="1" si="1">R12 * M12 * -1</f>
+        <f ca="1">R12 * M12</f>
         <v>0</v>
       </c>
       <c r="K2">
@@ -747,7 +712,7 @@
       </c>
       <c r="Q2" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("M"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("M"&amp;(ROW()+2)) - INDIRECT("P"&amp;ROW()) * INDIRECT("N"&amp;(ROW()+2))</f>
-        <v>-3.5777087639996634</v>
+        <v>201.0619264</v>
       </c>
       <c r="R2" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;(ROW()+2)) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;(ROW()+2))</f>
@@ -761,11 +726,11 @@
       </c>
       <c r="U2" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("Q"&amp;ROW()) + INDIRECT("S"&amp;ROW()) * INDIRECT("Q"&amp;(ROW()+4)) - INDIRECT("T"&amp;ROW()) * INDIRECT("R"&amp;(ROW()+4))</f>
-        <v>1.1883939417008675</v>
+        <v>-83.282664781849633</v>
       </c>
       <c r="V2" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;ROW()) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;(ROW()+4)) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;(ROW()+4))</f>
-        <v>2.2025879235748675</v>
+        <v>-142.17229559092482</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
@@ -795,8 +760,8 @@
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.89442719099991586</v>
+        <f ca="1">R13 * M13</f>
+        <v>-50.265481600000001</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -810,7 +775,7 @@
       </c>
       <c r="N3" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("J"&amp;ROW()) + INDIRECT("K"&amp;ROW()) * INDIRECT("J"&amp;(ROW()+1)) + INDIRECT("L"&amp;ROW()) * INDIRECT("I"&amp;(ROW()+1))</f>
-        <v>-1.7888543819998319</v>
+        <v>100.53096320000002</v>
       </c>
       <c r="O3">
         <v>-1</v>
@@ -824,7 +789,7 @@
       </c>
       <c r="R3" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;(ROW()-2)) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;ROW()) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;ROW())</f>
-        <v>1.7888543819998319</v>
+        <v>-100.53096320000002</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -834,11 +799,11 @@
       </c>
       <c r="U3" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("Q"&amp;ROW()) + INDIRECT("S"&amp;ROW()) * INDIRECT("Q"&amp;(ROW()+4)) - INDIRECT("T"&amp;ROW()) * INDIRECT("R"&amp;(ROW()+4))</f>
-        <v>2.8597149997093365</v>
+        <v>-201.06192640000003</v>
       </c>
       <c r="V3" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;ROW()) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;(ROW()+4)) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;(ROW()+4))</f>
-        <v>1.7888543819998319</v>
+        <v>-100.53096320000002</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
@@ -868,8 +833,8 @@
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.6832815729997477</v>
+        <f ca="1">R14 * M14</f>
+        <v>150.79644480000002</v>
       </c>
       <c r="K4">
         <v>-1</v>
@@ -883,7 +848,7 @@
       </c>
       <c r="N4" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("J"&amp;(ROW()-1)) + INDIRECT("K"&amp;ROW()) * INDIRECT("J"&amp;ROW()) + INDIRECT("L"&amp;ROW()) * INDIRECT("I"&amp;ROW())</f>
-        <v>3.5777087639996634</v>
+        <v>-201.0619264</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -893,7 +858,7 @@
       </c>
       <c r="Q4" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("M"&amp;(ROW()-2)) + INDIRECT("O"&amp;ROW()) * INDIRECT("M"&amp;ROW()) - INDIRECT("P"&amp;ROW()) * INDIRECT("N"&amp;ROW())</f>
-        <v>3.5777087639996634</v>
+        <v>-201.0619264</v>
       </c>
       <c r="R4" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;(ROW()-2)) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;ROW()) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;ROW())</f>
@@ -907,11 +872,11 @@
       </c>
       <c r="U4" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("Q"&amp;ROW()) + INDIRECT("S"&amp;ROW()) * INDIRECT("Q"&amp;(ROW()+4)) - INDIRECT("T"&amp;ROW()) * INDIRECT("R"&amp;(ROW()+4))</f>
-        <v>8.3438114697001957</v>
+        <v>-485.40651758184964</v>
       </c>
       <c r="V4" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;ROW()) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;(ROW()+4)) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;(ROW()+4))</f>
-        <v>-2.2025879235748675</v>
+        <v>142.17229559092482</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
@@ -941,8 +906,8 @@
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <f ca="1">R15 * M15</f>
-        <v>-0.6</v>
+        <f ca="1">R15 * M15 * -1</f>
+        <v>37.699111200000004</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -956,7 +921,7 @@
       </c>
       <c r="N5" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("J"&amp;ROW()) + INDIRECT("K"&amp;ROW()) * INDIRECT("J"&amp;(ROW()+1)) + INDIRECT("L"&amp;ROW()) * INDIRECT("I"&amp;(ROW()+1))</f>
-        <v>0.61267812518166498</v>
+        <v>-25.132740799999993</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -970,7 +935,7 @@
       </c>
       <c r="R5" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;(ROW()+2)) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;(ROW()+2))</f>
-        <v>4.0850712500726667</v>
+        <v>-251.32740800000002</v>
       </c>
       <c r="S5">
         <v>-1</v>
@@ -984,7 +949,7 @@
       </c>
       <c r="V5" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;(ROW()-4)) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;ROW()) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;ROW())</f>
-        <v>-5.8739256320724991</v>
+        <v>351.85837120000002</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
@@ -1014,8 +979,8 @@
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <f ca="1">R16 * M16</f>
-        <v>1.212678125181665</v>
+        <f ca="1">R16 * M16 * -1</f>
+        <v>-62.831851999999998</v>
       </c>
       <c r="K6">
         <v>-1</v>
@@ -1029,7 +994,7 @@
       </c>
       <c r="N6" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("J"&amp;(ROW()-1)) + INDIRECT("K"&amp;ROW()) * INDIRECT("J"&amp;ROW()) + INDIRECT("L"&amp;ROW()) * INDIRECT("I"&amp;ROW())</f>
-        <v>-1.812678125181665</v>
+        <v>100.5309632</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1039,11 +1004,11 @@
       </c>
       <c r="Q6" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("M"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("M"&amp;(ROW()+2)) - INDIRECT("P"&amp;ROW()) * INDIRECT("N"&amp;(ROW()+2))</f>
-        <v>4.9276068751089994</v>
+        <v>-301.59288960000003</v>
       </c>
       <c r="R6" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;ROW()) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;(ROW()+2)) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;(ROW()+2))</f>
-        <v>-1.812678125181665</v>
+        <v>100.5309632</v>
       </c>
       <c r="S6">
         <v>-0.70710700000000004</v>
@@ -1053,11 +1018,11 @@
       </c>
       <c r="U6" s="2">
         <f ca="1">INDIRECT("Q"&amp;(ROW()-4))+INDIRECT("S"&amp;ROW())*INDIRECT("Q"&amp;ROW())-INDIRECT("T"&amp;ROW())*INDIRECT("R"&amp;ROW())</f>
-        <v>-8.3438114697001957</v>
+        <v>485.40651758184964</v>
       </c>
       <c r="V6" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;(ROW()-4)) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;ROW()) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;ROW())</f>
-        <v>-2.2025879235748675</v>
+        <v>142.17229559092482</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
@@ -1087,8 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <f ca="1">R17 * M17</f>
-        <v>-0.72760687510899891</v>
+        <f ca="1">R17 * M17 * -1</f>
+        <v>37.699111200000004</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1102,7 +1067,7 @@
       </c>
       <c r="N7" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("J"&amp;ROW()) + INDIRECT("K"&amp;ROW()) * INDIRECT("J"&amp;(ROW()+1)) + INDIRECT("L"&amp;ROW()) * INDIRECT("I"&amp;(ROW()+1))</f>
-        <v>3.4723931248910014</v>
+        <v>-226.19466720000003</v>
       </c>
       <c r="O7">
         <v>-1</v>
@@ -1116,7 +1081,7 @@
       </c>
       <c r="R7" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;(ROW()-2)) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;ROW()) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;ROW())</f>
-        <v>-2.8597149997093365</v>
+        <v>201.06192640000003</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1126,11 +1091,11 @@
       </c>
       <c r="U7" s="2">
         <f ca="1">INDIRECT("Q"&amp;(ROW()-4))+INDIRECT("S"&amp;ROW())*INDIRECT("Q"&amp;ROW())-INDIRECT("T"&amp;ROW())*INDIRECT("R"&amp;ROW())</f>
-        <v>-2.8597149997093365</v>
+        <v>201.06192640000003</v>
       </c>
       <c r="V7" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;(ROW()-4)) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;ROW()) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;ROW())</f>
-        <v>1.7888543819998319</v>
+        <v>-100.53096320000002</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
@@ -1160,8 +1125,8 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <f ca="1">R18 * M18</f>
-        <v>4.2</v>
+        <f ca="1">R18 * M18 * -1</f>
+        <v>-263.89377840000003</v>
       </c>
       <c r="K8">
         <v>-1</v>
@@ -1175,7 +1140,7 @@
       </c>
       <c r="N8" s="1">
         <f ca="1" xml:space="preserve"> INDIRECT("J"&amp;(ROW()-1)) + INDIRECT("K"&amp;ROW()) * INDIRECT("J"&amp;ROW()) + INDIRECT("L"&amp;ROW()) * INDIRECT("I"&amp;ROW())</f>
-        <v>-4.9276068751089994</v>
+        <v>301.59288960000003</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1185,11 +1150,11 @@
       </c>
       <c r="Q8" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("M"&amp;(ROW()-2)) + INDIRECT("O"&amp;ROW()) * INDIRECT("M"&amp;ROW()) - INDIRECT("P"&amp;ROW()) * INDIRECT("N"&amp;ROW())</f>
-        <v>-4.9276068751089994</v>
+        <v>301.59288960000003</v>
       </c>
       <c r="R8" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("N"&amp;(ROW()-2)) + INDIRECT("O"&amp;ROW()) * INDIRECT("N"&amp;ROW()) + INDIRECT("P"&amp;ROW()) * INDIRECT("M"&amp;ROW())</f>
-        <v>-1.812678125181665</v>
+        <v>100.5309632</v>
       </c>
       <c r="S8">
         <v>0.70710700000000004</v>
@@ -1199,11 +1164,11 @@
       </c>
       <c r="U8" s="2">
         <f ca="1">INDIRECT("Q"&amp;(ROW()-4))+INDIRECT("S"&amp;ROW())*INDIRECT("Q"&amp;ROW())-INDIRECT("T"&amp;ROW())*INDIRECT("R"&amp;ROW())</f>
-        <v>-1.1883939417008675</v>
+        <v>83.282664781849633</v>
       </c>
       <c r="V8" s="2">
         <f ca="1" xml:space="preserve"> INDIRECT("R"&amp;(ROW()-4)) + INDIRECT("S"&amp;ROW()) * INDIRECT("R"&amp;ROW()) + INDIRECT("T"&amp;ROW()) * INDIRECT("Q"&amp;ROW())</f>
-        <v>2.2025879235748675</v>
+        <v>-142.17229559092482</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1250,12 +1215,12 @@
         <v>71.086125797935267</v>
       </c>
       <c r="R11" s="6">
-        <f ca="1">INDIRECT("O"&amp;ROW()) /INDIRECT("Q"&amp;ROW())</f>
-        <v>-0.70710678118654746</v>
+        <f ca="1">INDIRECT("O"&amp;ROW())</f>
+        <v>-50.265481600000001</v>
       </c>
       <c r="S11" s="6">
-        <f ca="1">INDIRECT("P"&amp;ROW()) /INDIRECT("Q"&amp;ROW())</f>
-        <v>-0.70710678118654746</v>
+        <f ca="1">INDIRECT("P"&amp;ROW())</f>
+        <v>-50.265481600000001</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1272,24 +1237,24 @@
         <v>0</v>
       </c>
       <c r="O12" s="7">
-        <f t="shared" ref="N12:O18" ca="1" si="2">2*3.1415926*(INDIRECT("M"&amp;ROW()) - 4) * 2</f>
+        <f t="shared" ref="O12:O18" ca="1" si="1">2*3.1415926*(INDIRECT("M"&amp;ROW()) - 4) * 2</f>
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" ref="P12:P18" ca="1" si="3">2*3.1415926*(INDIRECT("N"&amp;ROW()) - 4) * 2</f>
+        <f t="shared" ref="P12:P18" ca="1" si="2">2*3.1415926*(INDIRECT("N"&amp;ROW()) - 4) * 2</f>
         <v>-50.265481600000001</v>
       </c>
       <c r="Q12" s="6">
-        <f t="shared" ref="Q12:Q18" ca="1" si="4" xml:space="preserve"> SQRT(INDIRECT("O"&amp;ROW()) * INDIRECT("O"&amp;ROW()) + INDIRECT("P"&amp;ROW()) * INDIRECT("P"&amp;ROW()))</f>
+        <f t="shared" ref="Q12:Q18" ca="1" si="3" xml:space="preserve"> SQRT(INDIRECT("O"&amp;ROW()) * INDIRECT("O"&amp;ROW()) + INDIRECT("P"&amp;ROW()) * INDIRECT("P"&amp;ROW()))</f>
         <v>50.265481600000001</v>
       </c>
       <c r="R12" s="6">
-        <f t="shared" ref="R12:R18" ca="1" si="5">INDIRECT("O"&amp;ROW()) /INDIRECT("Q"&amp;ROW())</f>
+        <f t="shared" ref="R12:R18" ca="1" si="4">INDIRECT("O"&amp;ROW())</f>
         <v>0</v>
       </c>
       <c r="S12" s="6">
-        <f t="shared" ref="S12:S18" ca="1" si="6">INDIRECT("P"&amp;ROW()) /INDIRECT("Q"&amp;ROW())</f>
-        <v>-1</v>
+        <f t="shared" ref="S12:S18" ca="1" si="5">INDIRECT("P"&amp;ROW())</f>
+        <v>-50.265481600000001</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1306,24 +1271,24 @@
         <v>0</v>
       </c>
       <c r="O13" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>-25.132740800000001</v>
+      </c>
+      <c r="P13" s="6">
         <f t="shared" ca="1" si="2"/>
+        <v>-50.265481600000001</v>
+      </c>
+      <c r="Q13" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>56.198516889682452</v>
+      </c>
+      <c r="R13" s="6">
+        <f t="shared" ca="1" si="4"/>
         <v>-25.132740800000001</v>
       </c>
-      <c r="P13" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>-50.265481600000001</v>
-      </c>
-      <c r="Q13" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>56.198516889682452</v>
-      </c>
-      <c r="R13" s="6">
+      <c r="S13" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.44721359549995793</v>
-      </c>
-      <c r="S13" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.89442719099991586</v>
+        <v>-50.265481600000001</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1340,24 +1305,24 @@
         <v>0</v>
       </c>
       <c r="O14" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>25.132740800000001</v>
+      </c>
+      <c r="P14" s="6">
         <f t="shared" ca="1" si="2"/>
+        <v>-50.265481600000001</v>
+      </c>
+      <c r="Q14" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>56.198516889682452</v>
+      </c>
+      <c r="R14" s="6">
+        <f t="shared" ca="1" si="4"/>
         <v>25.132740800000001</v>
       </c>
-      <c r="P14" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>-50.265481600000001</v>
-      </c>
-      <c r="Q14" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>56.198516889682452</v>
-      </c>
-      <c r="R14" s="6">
+      <c r="S14" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44721359549995793</v>
-      </c>
-      <c r="S14" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.89442719099991586</v>
+        <v>-50.265481600000001</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1374,24 +1339,24 @@
         <v>0</v>
       </c>
       <c r="O15" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>-37.699111200000004</v>
+      </c>
+      <c r="P15" s="6">
         <f t="shared" ca="1" si="2"/>
+        <v>-50.265481600000001</v>
+      </c>
+      <c r="Q15" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>62.831852000000005</v>
+      </c>
+      <c r="R15" s="6">
+        <f t="shared" ca="1" si="4"/>
         <v>-37.699111200000004</v>
       </c>
-      <c r="P15" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>-50.265481600000001</v>
-      </c>
-      <c r="Q15" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>62.831852000000005</v>
-      </c>
-      <c r="R15" s="6">
+      <c r="S15" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.6</v>
-      </c>
-      <c r="S15" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.79999999999999993</v>
+        <v>-50.265481600000001</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1422,24 +1387,24 @@
         <v>0</v>
       </c>
       <c r="O16" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.5663704</v>
+      </c>
+      <c r="P16" s="6">
         <f t="shared" ca="1" si="2"/>
+        <v>-50.265481600000001</v>
+      </c>
+      <c r="Q16" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>51.812472489835251</v>
+      </c>
+      <c r="R16" s="6">
+        <f t="shared" ca="1" si="4"/>
         <v>12.5663704</v>
       </c>
-      <c r="P16" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>-50.265481600000001</v>
-      </c>
-      <c r="Q16" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>51.812472489835251</v>
-      </c>
-      <c r="R16" s="6">
+      <c r="S16" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24253562503633297</v>
-      </c>
-      <c r="S16" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.97014250014533188</v>
+        <v>-50.265481600000001</v>
       </c>
     </row>
     <row r="17" spans="9:19" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1456,24 +1421,24 @@
         <v>0</v>
       </c>
       <c r="O17" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>-12.5663704</v>
+      </c>
+      <c r="P17" s="6">
         <f t="shared" ca="1" si="2"/>
+        <v>-50.265481600000001</v>
+      </c>
+      <c r="Q17" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>51.812472489835251</v>
+      </c>
+      <c r="R17" s="6">
+        <f t="shared" ca="1" si="4"/>
         <v>-12.5663704</v>
       </c>
-      <c r="P17" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>-50.265481600000001</v>
-      </c>
-      <c r="Q17" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>51.812472489835251</v>
-      </c>
-      <c r="R17" s="6">
+      <c r="S17" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.24253562503633297</v>
-      </c>
-      <c r="S17" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.97014250014533188</v>
+        <v>-50.265481600000001</v>
       </c>
     </row>
     <row r="18" spans="9:19" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1490,24 +1455,24 @@
         <v>0</v>
       </c>
       <c r="O18" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>37.699111200000004</v>
+      </c>
+      <c r="P18" s="6">
         <f t="shared" ca="1" si="2"/>
+        <v>-50.265481600000001</v>
+      </c>
+      <c r="Q18" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>62.831852000000005</v>
+      </c>
+      <c r="R18" s="6">
+        <f t="shared" ca="1" si="4"/>
         <v>37.699111200000004</v>
       </c>
-      <c r="P18" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>-50.265481600000001</v>
-      </c>
-      <c r="Q18" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>62.831852000000005</v>
-      </c>
-      <c r="R18" s="6">
+      <c r="S18" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6</v>
-      </c>
-      <c r="S18" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.79999999999999993</v>
+        <v>-50.265481600000001</v>
       </c>
     </row>
     <row r="32" spans="9:19" x14ac:dyDescent="0.15">
